--- a/testcases/SampleTestsuite.xlsx
+++ b/testcases/SampleTestsuite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\schweier\qf-test\qf-test-plugin.keyworddriventesting\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE7BB70-F4B6-4BD2-AC52-7E21A2A97254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06C1CEF-0F42-46DE-A9FA-2540B44A397C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25110" yWindow="2175" windowWidth="22800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Einfacher Vergleich von Zahlen</t>
-  </si>
-  <si>
-    <t>In dem Testfall werden zwei Zahlen vauf Gleichheit geprüft</t>
   </si>
   <si>
     <t>In dem Testfall wird geprüft, ob 5 größer ist als 3, was nicht der Fall sein soll. Aus diesem Grund wird ein Fehlschlagen des Tests erwartet.
@@ -112,6 +109,12 @@
   </si>
   <si>
     <t>QFT-0004</t>
+  </si>
+  <si>
+    <t>got:=1;;expected:=1</t>
+  </si>
+  <si>
+    <t>In dem Testfall werden zwei Zahlen auf Gleichheit geprüft</t>
   </si>
 </sst>
 </file>
@@ -631,13 +634,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,13 +690,13 @@
     </row>
     <row r="2" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
@@ -720,87 +723,106 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="48" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="10" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" ht="48" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="9">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="D6" s="9">
         <v>1</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="F6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;D &amp;T&amp;R&amp;F [ Recommended test cases ]</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
